--- a/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 3,17</t>
+          <t>-9,55; 3,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 9,6</t>
+          <t>-6,33; 10,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 18,45</t>
+          <t>0,12; 18,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 19,98</t>
+          <t>-4,99; 22,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 22,54</t>
+          <t>-42,86; 20,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 21,13</t>
+          <t>-11,66; 23,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 58,25</t>
+          <t>0,19; 55,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 194,38</t>
+          <t>-21,13; 222,41</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 10,93</t>
+          <t>-1,58; 11,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 26,31</t>
+          <t>14,4; 26,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 16,81</t>
+          <t>2,68; 16,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 14,33</t>
+          <t>-6,67; 13,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 41,26</t>
+          <t>-5,06; 41,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,32; 50,75</t>
+          <t>24,24; 50,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 32,4</t>
+          <t>4,53; 31,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 64,46</t>
+          <t>-18,89; 58,38</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,48</t>
+          <t>-2,34; 8,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 8,82</t>
+          <t>-1,42; 9,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 9,76</t>
+          <t>-2,17; 9,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 2,35</t>
+          <t>-10,51; 2,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 35,87</t>
+          <t>-7,66; 33,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 12,54</t>
+          <t>-1,91; 12,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 17,06</t>
+          <t>-3,33; 15,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 8,52</t>
+          <t>-29,04; 9,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,61</t>
+          <t>-2,0; 8,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,93; -3,55</t>
+          <t>-16,65; -4,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 5,42</t>
+          <t>-7,11; 5,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 2,83</t>
+          <t>-7,12; 3,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 65,76</t>
+          <t>-11,13; 62,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,86; -6,77</t>
+          <t>-28,76; -8,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 14,65</t>
+          <t>-16,02; 14,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 12,63</t>
+          <t>-24,86; 16,82</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 11,82</t>
+          <t>0,11; 11,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,68</t>
+          <t>-4,14; 9,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 9,53</t>
+          <t>-3,7; 9,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,37</t>
+          <t>-5,02; 5,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 99,75</t>
+          <t>0,28; 101,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 32,91</t>
+          <t>-12,39; 36,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 48,07</t>
+          <t>-13,71; 49,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 32,91</t>
+          <t>-22,4; 31,33</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 12,94</t>
+          <t>2,56; 12,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 6,93</t>
+          <t>-4,0; 7,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 15,31</t>
+          <t>4,28; 15,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 37,74</t>
+          <t>9,89; 40,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 73,77</t>
+          <t>10,96; 69,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 20,64</t>
+          <t>-9,99; 21,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,66; 57,81</t>
+          <t>13,55; 56,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,08; 208,3</t>
+          <t>47,56; 222,14</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,75</t>
+          <t>2,08; 6,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,06</t>
+          <t>-0,35; 4,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,05</t>
+          <t>2,61; 8,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 15,91</t>
+          <t>2,89; 14,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 32,82</t>
+          <t>8,95; 33,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 9,99</t>
+          <t>-0,61; 9,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 20,23</t>
+          <t>6,1; 20,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 67,17</t>
+          <t>11,44; 63,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 3,05</t>
+          <t>-9,58; 3,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 10,4</t>
+          <t>-6,24; 9,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 18,23</t>
+          <t>-0,1; 19,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 20,18</t>
+          <t>-42,17; 25,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 23,02</t>
+          <t>-11,19; 19,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 55,82</t>
+          <t>-0,22; 61,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 11,03</t>
+          <t>-1,26; 11,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,4; 26,18</t>
+          <t>14,17; 25,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 16,66</t>
+          <t>1,54; 16,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 41,52</t>
+          <t>-4,19; 42,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,24; 50,99</t>
+          <t>24,26; 50,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 31,94</t>
+          <t>2,51; 31,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,14</t>
+          <t>-2,26; 8,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 9,19</t>
+          <t>-1,23; 8,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,2</t>
+          <t>-1,54; 9,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 33,1</t>
+          <t>-7,5; 34,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 12,94</t>
+          <t>-1,56; 12,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 15,88</t>
+          <t>-2,32; 16,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 8,52</t>
+          <t>-1,98; 8,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,65; -4,41</t>
+          <t>-17,15; -3,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 5,52</t>
+          <t>-7,5; 5,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 62,66</t>
+          <t>-10,49; 66,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -8,12</t>
+          <t>-29,35; -7,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 14,57</t>
+          <t>-16,64; 13,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 11,89</t>
+          <t>0,61; 12,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 9,74</t>
+          <t>-4,65; 8,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,75</t>
+          <t>-3,4; 10,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 101,64</t>
+          <t>2,02; 101,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 36,32</t>
+          <t>-14,45; 31,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 49,24</t>
+          <t>-12,51; 52,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 12,08</t>
+          <t>3,04; 12,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,43</t>
+          <t>-3,84; 7,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,28; 15,01</t>
+          <t>3,99; 14,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,96; 69,15</t>
+          <t>12,29; 71,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 21,91</t>
+          <t>-9,82; 21,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,55; 56,76</t>
+          <t>13,04; 55,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,71</t>
+          <t>1,82; 6,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,9</t>
+          <t>-0,5; 5,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,16</t>
+          <t>2,67; 8,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 33,06</t>
+          <t>8,16; 32,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,8</t>
+          <t>-0,91; 10,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 20,6</t>
+          <t>6,15; 20,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 3,69</t>
+          <t>-9,26; 3,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 9,41</t>
+          <t>-6,49; 9,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 19,07</t>
+          <t>0,61; 18,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 22,01</t>
+          <t>-6,43; 19,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 25,28</t>
+          <t>-41,66; 22,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 19,69</t>
+          <t>-11,87; 21,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 61,0</t>
+          <t>0,83; 58,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 222,41</t>
+          <t>-26,3; 194,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 11,27</t>
+          <t>-1,99; 10,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 25,86</t>
+          <t>14,22; 26,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 16,04</t>
+          <t>1,83; 16,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 13,8</t>
+          <t>-6,4; 14,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 42,39</t>
+          <t>-6,11; 41,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,26; 50,62</t>
+          <t>24,32; 50,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 31,16</t>
+          <t>3,01; 32,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 58,38</t>
+          <t>-17,94; 64,46</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 8,26</t>
+          <t>-2,34; 8,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,96</t>
+          <t>-1,61; 8,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 9,69</t>
+          <t>-1,82; 9,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 2,64</t>
+          <t>-10,3; 2,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 34,05</t>
+          <t>-8,26; 35,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 12,98</t>
+          <t>-2,14; 12,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 16,85</t>
+          <t>-2,78; 17,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 9,06</t>
+          <t>-28,78; 8,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 8,78</t>
+          <t>-2,34; 8,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -3,82</t>
+          <t>-16,93; -3,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 5,28</t>
+          <t>-7,73; 5,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 3,68</t>
+          <t>-6,67; 2,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 66,66</t>
+          <t>-12,48; 65,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,35; -7,18</t>
+          <t>-28,86; -6,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 13,82</t>
+          <t>-17,45; 14,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 16,82</t>
+          <t>-23,84; 12,63</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 12,16</t>
+          <t>0,44; 11,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 8,38</t>
+          <t>-4,89; 8,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 10,47</t>
+          <t>-4,04; 9,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 5,28</t>
+          <t>-5,41; 5,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 101,39</t>
+          <t>2,12; 99,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 31,79</t>
+          <t>-14,86; 32,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 52,59</t>
+          <t>-14,81; 48,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 31,33</t>
+          <t>-23,45; 32,91</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 12,63</t>
+          <t>2,8; 12,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 7,36</t>
+          <t>-4,17; 6,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 14,56</t>
+          <t>4,19; 15,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,89; 40,39</t>
+          <t>9,77; 37,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,29; 71,22</t>
+          <t>11,89; 73,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 21,33</t>
+          <t>-10,1; 20,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,04; 55,37</t>
+          <t>12,66; 57,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,56; 222,14</t>
+          <t>48,08; 208,3</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,79</t>
+          <t>2,08; 6,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,1</t>
+          <t>-0,35; 5,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,3</t>
+          <t>2,85; 8,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 14,92</t>
+          <t>2,92; 15,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,16; 32,82</t>
+          <t>8,81; 32,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,19</t>
+          <t>-0,67; 9,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 20,53</t>
+          <t>6,59; 20,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 63,75</t>
+          <t>11,85; 67,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>59,45%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 19,98</t>
+          <t>-3,6; 20,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 194,38</t>
+          <t>-20,12; 228,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>-3,77%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 14,33</t>
+          <t>-17,44; 9,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 64,46</t>
+          <t>-48,79; 43,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,0%</t>
+          <t>-15,81%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 2,35</t>
+          <t>-13,16; 1,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 8,52</t>
+          <t>-39,11; 4,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>-10,26%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 2,83</t>
+          <t>-8,04; 2,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 12,63</t>
+          <t>-30,62; 10,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,37</t>
+          <t>-5,37; 5,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 32,91</t>
+          <t>-23,33; 33,77</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,69</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,43</t>
+          <t>32,79</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>66,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>-11,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>281,76%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 12,94</t>
+          <t>3,85; 15,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 6,93</t>
+          <t>-10,17; 4,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 15,31</t>
+          <t>-1,75; 11,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 37,74</t>
+          <t>3,5; 66,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 73,77</t>
+          <t>21,7; 135,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 20,64</t>
+          <t>-31,06; 16,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,66; 57,81</t>
+          <t>-7,29; 62,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,08; 208,3</t>
+          <t>28,78; 766,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>46,05%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-4,48; 11,62</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 11,96</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 19,99</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 18,99</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-13,31; 49,25</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; 29,05</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 60,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23,36; 71,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,08; 6,75</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,35; 5,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,85; 8,05</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 15,91</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 22,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>8,81; 32,82</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-0,67; 9,99</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,59; 20,23</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>11,85; 67,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 102,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 3,17</t>
+          <t>-9,74; 3,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 9,6</t>
+          <t>-6,69; 10,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 18,45</t>
+          <t>1,09; 19,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 20,28</t>
+          <t>-4,78; 19,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 22,54</t>
+          <t>-43,29; 21,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 21,13</t>
+          <t>-12,29; 22,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 58,25</t>
+          <t>2,4; 61,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 228,31</t>
+          <t>-20,25; 218,55</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 10,93</t>
+          <t>-1,51; 11,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 26,31</t>
+          <t>13,87; 26,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 16,81</t>
+          <t>2,1; 16,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 9,74</t>
+          <t>-16,16; 10,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 41,26</t>
+          <t>-4,35; 44,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,32; 50,75</t>
+          <t>23,54; 51,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 32,4</t>
+          <t>3,45; 31,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 43,19</t>
+          <t>-50,39; 42,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,48</t>
+          <t>-2,3; 8,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 8,82</t>
+          <t>-0,71; 9,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 9,76</t>
+          <t>-2,1; 9,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 1,46</t>
+          <t>-12,43; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 35,87</t>
+          <t>-7,77; 35,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 12,54</t>
+          <t>-0,92; 13,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 17,06</t>
+          <t>-3,22; 16,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 4,54</t>
+          <t>-37,37; 4,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,61</t>
+          <t>-2,06; 8,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,93; -3,55</t>
+          <t>-16,59; -3,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 5,42</t>
+          <t>-6,24; 6,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 2,37</t>
+          <t>-8,98; 2,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 65,76</t>
+          <t>-11,07; 66,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,86; -6,77</t>
+          <t>-28,66; -7,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 14,65</t>
+          <t>-13,89; 17,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 10,91</t>
+          <t>-33,81; 11,47</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 11,82</t>
+          <t>0,68; 11,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,68</t>
+          <t>-4,41; 9,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 9,53</t>
+          <t>-4,43; 9,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 5,35</t>
+          <t>-5,17; 5,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 99,75</t>
+          <t>3,64; 99,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 32,91</t>
+          <t>-13,05; 37,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 48,07</t>
+          <t>-15,08; 44,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 33,77</t>
+          <t>-22,65; 34,01</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 15,59</t>
+          <t>2,87; 14,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 4,28</t>
+          <t>-10,19; 4,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 11,61</t>
+          <t>-1,5; 11,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,5; 66,91</t>
+          <t>3,32; 65,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,7; 135,29</t>
+          <t>16,07; 131,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 16,93</t>
+          <t>-30,3; 16,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 62,16</t>
+          <t>-5,91; 58,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,78; 766,91</t>
+          <t>28,16; 705,09</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 11,62</t>
+          <t>-4,26; 12,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 11,96</t>
+          <t>-5,09; 11,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 19,99</t>
+          <t>3,39; 20,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,12; 18,99</t>
+          <t>8,14; 19,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 49,25</t>
+          <t>-12,87; 52,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 29,05</t>
+          <t>-9,79; 28,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,04; 60,85</t>
+          <t>7,38; 61,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,36; 71,56</t>
+          <t>23,28; 73,65</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,75</t>
+          <t>1,83; 6,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,06</t>
+          <t>-0,43; 4,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,05</t>
+          <t>2,62; 7,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 22,75</t>
+          <t>2,01; 23,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,81; 32,82</t>
+          <t>8,33; 32,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 9,99</t>
+          <t>-0,81; 9,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,59; 20,23</t>
+          <t>6,1; 19,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,15; 102,08</t>
+          <t>8,39; 103,65</t>
         </is>
       </c>
     </row>
